--- a/DONE/DE SAGUN, NANCY.xlsx
+++ b/DONE/DE SAGUN, NANCY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861864EF-7FF7-4EA3-8708-882F4DDF272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -313,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -692,17 +691,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -712,6 +708,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,7 +1241,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,7 +1284,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1348,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,7 +1408,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1474,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1537,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1635,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1694,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1759,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1802,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1877,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2063,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2129,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2187,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2253,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2309,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2384,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +2427,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2493,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2549,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,25 +2645,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2676,25 +2675,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3001,7 +3000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3011,7 +3010,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3019,34 +3018,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A80" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3058,16 +3057,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3076,16 +3075,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3096,18 +3095,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3115,7 +3114,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3128,24 +3127,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3204,7 +3203,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3226,7 +3225,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3275,7 +3274,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3295,7 +3294,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3315,7 +3314,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3361,7 +3360,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3381,7 +3380,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3401,7 +3400,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3425,7 +3424,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>43</v>
@@ -3447,7 +3446,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3519,7 +3518,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>54</v>
       </c>
@@ -3537,7 +3536,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3635,7 +3634,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3707,7 +3706,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -3753,7 +3752,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3827,7 +3826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -3875,7 +3874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>67</v>
       </c>
@@ -3893,7 +3892,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -3913,7 +3912,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -3933,7 +3932,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -3953,7 +3952,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -3973,7 +3972,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -3993,7 +3992,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4013,7 +4012,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4033,7 +4032,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44057</v>
       </c>
@@ -4053,7 +4052,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44064</v>
       </c>
@@ -4073,7 +4072,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="49"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4093,7 +4092,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>75</v>
@@ -4139,7 +4138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>76</v>
@@ -4161,7 +4160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>44</v>
@@ -4183,7 +4182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>51</v>
@@ -4205,7 +4204,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -4225,7 +4224,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -4245,7 +4244,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>80</v>
       </c>
@@ -4263,7 +4262,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44197</v>
       </c>
@@ -4283,7 +4282,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -4303,7 +4302,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44256</v>
       </c>
@@ -4323,7 +4322,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44287</v>
       </c>
@@ -4343,7 +4342,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44317</v>
       </c>
@@ -4363,7 +4362,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44348</v>
       </c>
@@ -4383,7 +4382,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44378</v>
       </c>
@@ -4403,7 +4402,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44409</v>
       </c>
@@ -4423,7 +4422,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44440</v>
       </c>
@@ -4443,7 +4442,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44470</v>
       </c>
@@ -4463,7 +4462,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44501</v>
       </c>
@@ -4483,7 +4482,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44531</v>
       </c>
@@ -4507,7 +4506,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>82</v>
       </c>
@@ -4525,7 +4524,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4545,7 +4544,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4565,7 +4564,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4585,7 +4584,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44652</v>
       </c>
@@ -4605,7 +4604,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44682</v>
       </c>
@@ -4625,7 +4624,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44713</v>
       </c>
@@ -4645,7 +4644,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44743</v>
       </c>
@@ -4665,7 +4664,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44774</v>
       </c>
@@ -4685,7 +4684,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44805</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44835</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44866</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44896</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>89</v>
       </c>
@@ -4807,7 +4806,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44927</v>
       </c>
@@ -4827,7 +4826,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>44958</v>
@@ -4848,7 +4847,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" ref="A86:A96" si="0">EDATE(A85,1)</f>
         <v>44986</v>
@@ -4875,7 +4874,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A86,1)</f>
         <v>45017</v>
@@ -4900,7 +4899,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -4919,7 +4918,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>45078</v>
@@ -4938,7 +4937,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -4957,7 +4956,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -4976,7 +4975,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -4995,7 +4994,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -5014,7 +5013,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -5033,7 +5032,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -5052,7 +5051,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -5071,7 +5070,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5087,7 +5086,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5103,7 +5102,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5119,7 +5118,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5135,7 +5134,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5151,7 +5150,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5167,7 +5166,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5183,7 +5182,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5199,7 +5198,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5215,7 +5214,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5231,7 +5230,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5247,7 +5246,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5263,7 +5262,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5279,7 +5278,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5295,7 +5294,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5311,7 +5310,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5327,7 +5326,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5343,7 +5342,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5359,7 +5358,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5375,7 +5374,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5391,7 +5390,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5407,7 +5406,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5423,7 +5422,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5439,7 +5438,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5455,7 +5454,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5471,7 +5470,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5487,7 +5486,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5503,7 +5502,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
       <c r="B124" s="15"/>
       <c r="C124" s="42"/>
@@ -5521,28 +5520,28 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5550,8 +5549,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                         OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5560,34 +5559,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" activePane="bottomLeft"/>
+      <pane ySplit="3690" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5599,16 +5598,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5619,16 +5618,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5639,18 +5638,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5658,7 +5657,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5671,24 +5670,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5747,7 +5746,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -5769,7 +5768,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5791,7 +5790,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43405</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>54</v>
       </c>
@@ -5879,7 +5878,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43466</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43497</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43647</v>
       </c>
@@ -5951,7 +5950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>67</v>
       </c>
@@ -5969,7 +5968,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>51</v>
@@ -6015,7 +6014,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43862</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -6059,7 +6058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44057</v>
       </c>
@@ -6127,7 +6126,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44064</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>75</v>
@@ -6195,7 +6194,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6217,7 +6216,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -6239,7 +6238,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>82</v>
       </c>
@@ -6257,7 +6256,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44805</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44835</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6321,7 +6320,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6337,7 +6336,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6353,7 +6352,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6369,7 +6368,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6385,7 +6384,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6401,7 +6400,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6417,7 +6416,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6433,7 +6432,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6449,7 +6448,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6465,7 +6464,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6481,7 +6480,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6497,7 +6496,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6513,7 +6512,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6529,7 +6528,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6545,7 +6544,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6561,7 +6560,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6577,7 +6576,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6593,7 +6592,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6609,7 +6608,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6625,7 +6624,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6641,7 +6640,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6657,7 +6656,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6673,7 +6672,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6689,7 +6688,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6705,7 +6704,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6721,7 +6720,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6737,7 +6736,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6753,7 +6752,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6769,7 +6768,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6785,7 +6784,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6801,7 +6800,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6817,7 +6816,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6833,7 +6832,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6849,7 +6848,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6865,7 +6864,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6881,7 +6880,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6897,7 +6896,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6913,7 +6912,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6929,7 +6928,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6945,7 +6944,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6961,7 +6960,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="15"/>
       <c r="C76" s="42"/>
@@ -6992,10 +6991,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7018,28 +7017,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7052,7 +7051,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7081,7 +7080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>15.625</v>
       </c>
@@ -7105,17 +7104,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7136,7 +7135,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7215,7 +7214,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7241,7 +7240,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7319,7 +7318,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7636,7 +7635,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7762,7 +7761,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7834,7 +7833,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7843,7 +7842,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7852,7 +7851,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7861,7 +7860,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7870,7 +7869,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7879,7 +7878,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7888,7 +7887,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7897,7 +7896,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7906,7 +7905,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7915,7 +7914,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7924,7 +7923,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7933,7 +7932,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7942,7 +7941,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7951,7 +7950,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7960,7 +7959,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7969,7 +7968,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7978,7 +7977,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7987,7 +7986,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7996,7 +7995,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8005,7 +8004,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8014,7 +8013,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8023,7 +8022,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8032,7 +8031,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8041,7 +8040,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8050,7 +8049,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8059,7 +8058,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8068,7 +8067,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8077,7 +8076,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8086,7 +8085,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/DONE/DE SAGUN, NANCY.xlsx
+++ b/DONE/DE SAGUN, NANCY.xlsx
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>4/24-28/2023</t>
   </si>
 </sst>
 </file>
@@ -691,14 +697,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -708,9 +717,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,7 +1247,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1290,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1354,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1414,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1480,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1543,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1641,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1700,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1765,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1808,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1883,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2069,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2135,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2193,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2259,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2315,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2390,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2433,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2499,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2555,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3033,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F10" sqref="F10"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,14 +3063,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3075,14 +3081,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3095,16 +3101,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3130,18 +3136,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3188,7 +3194,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>33.459000000000003</v>
+        <v>34.709000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3198,7 +3204,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>49.459000000000003</v>
+        <v>45.709000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3238,7 +3244,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>49.084000000000003</v>
+        <v>50.334000000000003</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -4882,15 +4888,17 @@
       <c r="B87" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39">
         <v>1</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -4904,7 +4912,9 @@
         <f t="shared" si="0"/>
         <v>45047</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
@@ -4913,10 +4923,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="39">
+        <v>5</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
@@ -5520,17 +5534,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5566,8 +5580,8 @@
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
+      <pane ySplit="3690" topLeftCell="A19"/>
+      <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -5598,14 +5612,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5618,14 +5632,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5638,16 +5652,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5673,18 +5687,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
